--- a/biology/Botanique/Galéopsis_à_feuilles_étroites/Galéopsis_à_feuilles_étroites.xlsx
+++ b/biology/Botanique/Galéopsis_à_feuilles_étroites/Galéopsis_à_feuilles_étroites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gal%C3%A9opsis_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Galéopsis_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeopsis angustifolia
 La Galéopside à feuilles étroites, Galeopsis angustifolia, est une espèce de plantes à fleurs du genre Galeopsis de la famille des Lamiacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gal%C3%A9opsis_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Galéopsis_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle, petite, pubescente et très ramifiée.
 Tiges peu enflées à l'attache des fleurs, ce qui le différencie du Galeopsis tetrahit.
 Fleurs rose foncé, mouchetées de blanc
-[1],[2].
+,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gal%C3%A9opsis_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Galéopsis_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, des Pyrénées au Nord jusqu'à 2 000 m d'altitude. Moins fréquent voire absent des régions de l'Ouest.
 </t>
